--- a/weather_prediction/temp_testcases/temperature_test_cases.xlsx
+++ b/weather_prediction/temp_testcases/temperature_test_cases.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final Yr\modules\weather_prediction\temp_testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14E4D6A-7FA1-468B-99F5-E474D059978A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A374D2F-9F9B-4DCE-AEA7-D836232E0627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2D2011C4-F269-40A9-9DF0-25DB32311D9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{2D2011C4-F269-40A9-9DF0-25DB32311D9D}"/>
   </bookViews>
   <sheets>
     <sheet name="SVM with grouping" sheetId="1" r:id="rId1"/>
     <sheet name="MLR" sheetId="2" r:id="rId2"/>
     <sheet name="SVM without grouping" sheetId="3" r:id="rId3"/>
-    <sheet name="Comparison" sheetId="4" r:id="rId4"/>
+    <sheet name="Mean Error" sheetId="4" r:id="rId4"/>
+    <sheet name="Max Difference" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -455,6 +456,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,12 +471,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,7 +599,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -682,7 +683,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -766,7 +767,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1085,6 +1086,3520 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Manali</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVM with Grouping</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Case 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SVM with grouping'!$F$9:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-82E9-4843-8E27-8C68E41291AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVM without Grouping</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SVM without grouping'!$E$9:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-82E9-4843-8E27-8C68E41291AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MLR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MLR!$E$9:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-82E9-4843-8E27-8C68E41291AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="540417776"/>
+        <c:axId val="540419744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="540417776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540419744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540419744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Max Difference</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540417776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="203200" dist="38100" algn="l" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="72000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Mumbai</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVM with Grouping</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Case 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SVM with grouping'!$F$15:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4B18-4518-9F6B-4B06C139E84C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVM without Grouping</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SVM without grouping'!$E$15:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4B18-4518-9F6B-4B06C139E84C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MLR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MLR!$E$15:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4B18-4518-9F6B-4B06C139E84C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="540417776"/>
+        <c:axId val="540419744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="540417776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540419744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540419744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Max Difference</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540417776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="203200" dist="38100" algn="l" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="72000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Rajkot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVM with Grouping</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Case 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SVM with grouping'!$F$21:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-32CB-4DA7-B1E4-A398A32D3FDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVM without Grouping</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SVM without grouping'!$E$21:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-32CB-4DA7-B1E4-A398A32D3FDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MLR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MLR!$E$21:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-32CB-4DA7-B1E4-A398A32D3FDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="540417776"/>
+        <c:axId val="540419744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="540417776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540419744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540419744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Max Difference</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540417776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="203200" dist="38100" algn="l" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="72000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sangli</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVM with Grouping</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Case 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SVM with grouping'!$F$27:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1423-43FC-8A9D-F0B864000CB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVM without Grouping</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SVM without grouping'!$E$27:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1423-43FC-8A9D-F0B864000CB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MLR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MLR!$E$27:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1423-43FC-8A9D-F0B864000CB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="540417776"/>
+        <c:axId val="540419744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="540417776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540419744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540419744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Max Difference</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540417776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="203200" dist="38100" algn="l" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="72000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Bhopal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVM with Grouping</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Case 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SVM with grouping'!$F$33:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-80B4-4051-AB10-B4D673CD98BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVM without Grouping</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SVM without grouping'!$E$33:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-80B4-4051-AB10-B4D673CD98BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MLR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MLR!$E$33:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-80B4-4051-AB10-B4D673CD98BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="540417776"/>
+        <c:axId val="540419744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="540417776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540419744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540419744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Max Difference</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540417776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="203200" dist="38100" algn="l" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="72000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Dispur</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVM with Grouping</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Case 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SVM with grouping'!$F$39:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1060-462F-A305-19BE933CF076}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVM without Grouping</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SVM without grouping'!$E$39:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1060-462F-A305-19BE933CF076}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MLR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MLR!$E$39:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1060-462F-A305-19BE933CF076}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="540417776"/>
+        <c:axId val="540419744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="540417776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540419744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540419744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Max Difference</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540417776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="203200" dist="38100" algn="l" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="72000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Jaipur</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVM with Grouping</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Case 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SVM with grouping'!$F$45:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-99A6-48D9-98DC-1BCE39D5A6BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVM without Grouping</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SVM without grouping'!$E$45:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-99A6-48D9-98DC-1BCE39D5A6BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MLR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MLR!$E$45:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-99A6-48D9-98DC-1BCE39D5A6BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="540417776"/>
+        <c:axId val="540419744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="540417776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540419744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540419744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Max Difference</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540417776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="203200" dist="38100" algn="l" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="72000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1176,7 +4691,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1260,7 +4775,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1344,7 +4859,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1724,7 +5239,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1808,7 +5323,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1892,7 +5407,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2272,7 +5787,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2356,7 +5871,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2440,7 +5955,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2820,7 +6335,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2904,7 +6419,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2988,7 +6503,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3368,7 +6883,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3452,7 +6967,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3536,7 +7051,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3916,7 +7431,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4000,7 +7515,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4084,7 +7599,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4464,7 +7979,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4548,7 +8063,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4632,7 +8147,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$F$6:$F$10</c:f>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4792,6 +8307,508 @@
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Mean Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540417776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="203200" dist="38100" algn="l" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="72000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Ooty</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVM with Grouping</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Mean Error'!$F$6:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Case 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Case 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Case 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SVM with grouping'!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8354-4E6B-8D53-3A5AF801BD93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVM without Grouping</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SVM without grouping'!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8354-4E6B-8D53-3A5AF801BD93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MLR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MLR!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8354-4E6B-8D53-3A5AF801BD93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="540417776"/>
+        <c:axId val="540419744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="540417776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540419744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540419744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Max Difference</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5768,6 +9785,313 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AAF2F36-C463-42F6-8ABD-879FC2CC1D6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F8DE73-CC2D-4221-816C-56B178344846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56394117-91BA-4D91-87A9-A8B35D541BAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC60546-95F7-419F-9430-41356A0D8B3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F70BAC4-B5FE-43CD-96DE-BBECEDAFE0F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1D5FF6-B244-46F0-BDFE-4A58447DCDE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB29E1D-2FA1-4F4E-958A-63D27EA00438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{787C85C3-9C24-4A54-B0C5-68EAEBAF949F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6067,8 +10391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8070D443-2924-45CF-8AD9-1A1A7B99709F}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6078,14 +10402,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -6976,8 +11300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A0E58-CB38-47B5-A2DB-554828956EBE}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection sqref="A1:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6987,13 +11311,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -7753,7 +12077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDF2B9B-1EBE-4FD1-A0E7-107BFFD7D4FE}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -7764,13 +12088,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -8531,7 +12855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E37ECA9-0712-4450-9BC5-F591F9D1E4F1}">
   <dimension ref="F5:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T70" sqref="T70"/>
     </sheetView>
   </sheetViews>
@@ -8546,102 +12870,102 @@
   <sheetData>
     <row r="5" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="47" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="45" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="45" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="47" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="48" t="s">
+      <c r="K10" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8653,22 +12977,22 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A92CFB0-ABC1-45E8-8192-E41EA563960F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010067FC146B2CB0C14282A438ACCDD392C9" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f181072b5df2d35465bbfefa3677604c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c49a57df-1bea-4d37-b8e7-79584c6c9970" xmlns:ns4="91fbfc98-c073-46c0-a3f7-723052533dfe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0894f50e4f2c30a5a7ac145d2a35031b" ns3:_="" ns4:_="">
     <xsd:import namespace="c49a57df-1bea-4d37-b8e7-79584c6c9970"/>
@@ -8853,24 +13177,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{037B78BC-BDB5-4E1A-B729-BE14A4081AA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB2A140-687F-440C-BC41-8A929AC6C47A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{925E259C-28DA-4CEC-93E0-691AD8941CEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8887,4 +13209,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{037B78BC-BDB5-4E1A-B729-BE14A4081AA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB2A140-687F-440C-BC41-8A929AC6C47A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/weather_prediction/temp_testcases/temperature_test_cases.xlsx
+++ b/weather_prediction/temp_testcases/temperature_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final Yr\modules\weather_prediction\temp_testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A374D2F-9F9B-4DCE-AEA7-D836232E0627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42D230C-922B-4D30-914A-92534B5C398B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{2D2011C4-F269-40A9-9DF0-25DB32311D9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D2011C4-F269-40A9-9DF0-25DB32311D9D}"/>
   </bookViews>
   <sheets>
     <sheet name="SVM with grouping" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="SVM without grouping" sheetId="3" r:id="rId3"/>
     <sheet name="Mean Error" sheetId="4" r:id="rId4"/>
     <sheet name="Max Difference" sheetId="5" r:id="rId5"/>
+    <sheet name="Statistics" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="48">
   <si>
     <t>Parameters</t>
   </si>
@@ -140,6 +141,45 @@
   </si>
   <si>
     <t>humidity</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Mean Error</t>
+  </si>
+  <si>
+    <t>Mean Absoulte Error</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>OOTY</t>
+  </si>
+  <si>
+    <t>MUMBAI</t>
+  </si>
+  <si>
+    <t>MANALI</t>
+  </si>
+  <si>
+    <t>RAJKOT</t>
+  </si>
+  <si>
+    <t>SANGLI,MAHARASHTRA</t>
+  </si>
+  <si>
+    <t>DISPUR</t>
+  </si>
+  <si>
+    <t>JAIPUR</t>
+  </si>
+  <si>
+    <t>BHOPAL</t>
+  </si>
+  <si>
+    <t>SVM without Grouping</t>
   </si>
 </sst>
 </file>
@@ -333,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -471,6 +511,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10391,8 +10439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8070D443-2924-45CF-8AD9-1A1A7B99709F}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12981,7 +13029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A92CFB0-ABC1-45E8-8192-E41EA563960F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
@@ -12989,6 +13037,1366 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF653C15-5EF2-439D-ABE9-5DD01436E9C9}">
+  <dimension ref="B2:M43"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="I2" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1.48</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="54">
+        <v>0.70212765957446799</v>
+      </c>
+      <c r="L4" s="54">
+        <v>2.12056737588652</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1.48</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="54">
+        <v>0.67375886524822604</v>
+      </c>
+      <c r="L5" s="54">
+        <v>2.1914893617021201</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2.6</v>
+      </c>
+      <c r="E6">
+        <v>2.6</v>
+      </c>
+      <c r="F6">
+        <v>2.93</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="54">
+        <v>1.8226950354609901</v>
+      </c>
+      <c r="L6" s="54">
+        <v>2.60283687943262</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2.6</v>
+      </c>
+      <c r="E7">
+        <v>2.6</v>
+      </c>
+      <c r="F7">
+        <v>2.93</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="54">
+        <v>1.8156028368794299</v>
+      </c>
+      <c r="L7" s="54">
+        <v>2.5531914893617</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1.4</v>
+      </c>
+      <c r="E8">
+        <v>1.4</v>
+      </c>
+      <c r="F8">
+        <v>1.61</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="54">
+        <v>1.2978723404255299</v>
+      </c>
+      <c r="L8" s="54">
+        <v>1.9787234042553099</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>-0.4</v>
+      </c>
+      <c r="E9">
+        <v>1.6</v>
+      </c>
+      <c r="F9">
+        <v>1.67</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="54">
+        <v>0.34751773049645301</v>
+      </c>
+      <c r="L9" s="54">
+        <v>2.31914893617021</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>-0.2</v>
+      </c>
+      <c r="E10">
+        <v>1.8</v>
+      </c>
+      <c r="F10">
+        <v>1.84</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="54">
+        <v>0.41134751773049599</v>
+      </c>
+      <c r="L10" s="54">
+        <v>2.1843971631205599</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>-0.4</v>
+      </c>
+      <c r="E11">
+        <v>1.6</v>
+      </c>
+      <c r="F11">
+        <v>1.67</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="54">
+        <v>0.38297872340425498</v>
+      </c>
+      <c r="L11" s="54">
+        <v>2.1843971631205599</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>-0.6</v>
+      </c>
+      <c r="E12">
+        <v>1.8</v>
+      </c>
+      <c r="F12">
+        <v>1.95</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+      <c r="K12" s="54">
+        <v>0.290780141843971</v>
+      </c>
+      <c r="L12" s="54">
+        <v>2.24822695035461</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>-0.2</v>
+      </c>
+      <c r="E13">
+        <v>1.8</v>
+      </c>
+      <c r="F13">
+        <v>1.84</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5</v>
+      </c>
+      <c r="K13" s="54">
+        <v>0.63829787234042501</v>
+      </c>
+      <c r="L13" s="54">
+        <v>2.43971631205673</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>2.6</v>
+      </c>
+      <c r="F14">
+        <v>2.93</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="54">
+        <v>0.63829787234042501</v>
+      </c>
+      <c r="L14" s="54">
+        <v>2.8226950354609901</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0.8</v>
+      </c>
+      <c r="E15">
+        <v>2.4</v>
+      </c>
+      <c r="F15">
+        <v>2.9</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="54">
+        <v>1.40425531914893</v>
+      </c>
+      <c r="L15" s="54">
+        <v>2.75177304964539</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0.8</v>
+      </c>
+      <c r="E16">
+        <v>2.4</v>
+      </c>
+      <c r="F16">
+        <v>2.9</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="54">
+        <v>1.2624113475177301</v>
+      </c>
+      <c r="L16" s="54">
+        <v>2.6808510638297798</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>-1.2</v>
+      </c>
+      <c r="E17">
+        <v>2.8</v>
+      </c>
+      <c r="F17">
+        <v>3.03</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="54">
+        <v>0.39716312056737502</v>
+      </c>
+      <c r="L17" s="54">
+        <v>2.75177304964539</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>0.2</v>
+      </c>
+      <c r="E18">
+        <v>1.4</v>
+      </c>
+      <c r="F18">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5</v>
+      </c>
+      <c r="K18" s="54">
+        <v>1.1418439716312001</v>
+      </c>
+      <c r="L18" s="54">
+        <v>2.80141843971631</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>-2.6</v>
+      </c>
+      <c r="E19">
+        <v>3.4</v>
+      </c>
+      <c r="F19">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="54">
+        <v>-2.8297872340425498</v>
+      </c>
+      <c r="L19" s="54">
+        <v>4.3617021276595702</v>
+      </c>
+      <c r="M19" s="1">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>-2.4</v>
+      </c>
+      <c r="E20">
+        <v>3.2</v>
+      </c>
+      <c r="F20">
+        <v>4.34</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="54">
+        <v>-2.60283687943262</v>
+      </c>
+      <c r="L20" s="54">
+        <v>3.83687943262411</v>
+      </c>
+      <c r="M20" s="1">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>-2.6</v>
+      </c>
+      <c r="E21">
+        <v>3.4</v>
+      </c>
+      <c r="F21">
+        <v>4.07</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="54">
+        <v>-2.6595744680851001</v>
+      </c>
+      <c r="L21" s="54">
+        <v>3.8085106382978702</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>-3</v>
+      </c>
+      <c r="E22">
+        <v>3.8</v>
+      </c>
+      <c r="F22">
+        <v>4.45</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
+      <c r="K22" s="54">
+        <v>-2.9007092198581499</v>
+      </c>
+      <c r="L22" s="54">
+        <v>4.3049645390070896</v>
+      </c>
+      <c r="M22" s="1">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>-2.6</v>
+      </c>
+      <c r="E23">
+        <v>3.4</v>
+      </c>
+      <c r="F23">
+        <v>4.17</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="1">
+        <v>5</v>
+      </c>
+      <c r="K23" s="54">
+        <v>-2.3829787234042499</v>
+      </c>
+      <c r="L23" s="54">
+        <v>3.7021276595744599</v>
+      </c>
+      <c r="M23" s="1">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>-4</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="54">
+        <v>-4.0992907801418399</v>
+      </c>
+      <c r="L24" s="54">
+        <v>4.3829787234042499</v>
+      </c>
+      <c r="M24" s="1">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>-4</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>5.18</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+      <c r="K25" s="54">
+        <v>-4.1985815602836798</v>
+      </c>
+      <c r="L25" s="54">
+        <v>4.3971631205673702</v>
+      </c>
+      <c r="M25" s="1">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="E26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F26">
+        <v>5.29</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="1">
+        <v>3</v>
+      </c>
+      <c r="K26" s="54">
+        <v>-4.1702127659574399</v>
+      </c>
+      <c r="L26" s="54">
+        <v>4.3687943262411304</v>
+      </c>
+      <c r="M26" s="1">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="E27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F27">
+        <v>5.16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4</v>
+      </c>
+      <c r="K27" s="54">
+        <v>-3.9716312056737499</v>
+      </c>
+      <c r="L27" s="54">
+        <v>4.2978723404255303</v>
+      </c>
+      <c r="M27" s="1">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>-3.8</v>
+      </c>
+      <c r="E28">
+        <v>3.8</v>
+      </c>
+      <c r="F28">
+        <v>4.17</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5</v>
+      </c>
+      <c r="K28" s="54">
+        <v>-3.8226950354609901</v>
+      </c>
+      <c r="L28" s="54">
+        <v>4.0921985815602797</v>
+      </c>
+      <c r="M28" s="1">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>-3.6</v>
+      </c>
+      <c r="E29">
+        <v>3.6</v>
+      </c>
+      <c r="F29">
+        <v>4.24</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="54">
+        <v>-0.68794326241134696</v>
+      </c>
+      <c r="L29" s="54">
+        <v>2.5319148936170199</v>
+      </c>
+      <c r="M29" s="1">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>-3</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>3.26</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2</v>
+      </c>
+      <c r="K30" s="54">
+        <v>-0.54609929078014097</v>
+      </c>
+      <c r="L30" s="54">
+        <v>2.5177304964539</v>
+      </c>
+      <c r="M30" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>-3</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>3.26</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="1">
+        <v>3</v>
+      </c>
+      <c r="K31" s="54">
+        <v>-0.58156028368794299</v>
+      </c>
+      <c r="L31" s="54">
+        <v>2.56737588652482</v>
+      </c>
+      <c r="M31" s="1">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>-3.2</v>
+      </c>
+      <c r="E32">
+        <v>3.2</v>
+      </c>
+      <c r="F32">
+        <v>3.74</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4</v>
+      </c>
+      <c r="K32" s="54">
+        <v>-0.82978723404255295</v>
+      </c>
+      <c r="L32" s="54">
+        <v>2.6312056737588598</v>
+      </c>
+      <c r="M32" s="1">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>-3.2</v>
+      </c>
+      <c r="E33">
+        <v>3.2</v>
+      </c>
+      <c r="F33">
+        <v>3.74</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5</v>
+      </c>
+      <c r="K33" s="54">
+        <v>-0.41134751773049599</v>
+      </c>
+      <c r="L33" s="54">
+        <v>2.5106382978723398</v>
+      </c>
+      <c r="M33" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>-2.8</v>
+      </c>
+      <c r="E34">
+        <v>3.6</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="54">
+        <v>-0.85815602836879401</v>
+      </c>
+      <c r="L34" s="54">
+        <v>3.08510638297872</v>
+      </c>
+      <c r="M34" s="1">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>-2</v>
+      </c>
+      <c r="E35">
+        <v>3.2</v>
+      </c>
+      <c r="F35">
+        <v>3.52</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2</v>
+      </c>
+      <c r="K35" s="54">
+        <v>0.59574468085106302</v>
+      </c>
+      <c r="L35" s="54">
+        <v>2.9503546099290698</v>
+      </c>
+      <c r="M35" s="1">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>-2</v>
+      </c>
+      <c r="E36">
+        <v>3.2</v>
+      </c>
+      <c r="F36">
+        <v>3.52</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="1">
+        <v>3</v>
+      </c>
+      <c r="K36" s="54">
+        <v>0.58156028368794299</v>
+      </c>
+      <c r="L36" s="54">
+        <v>2.8510638297872299</v>
+      </c>
+      <c r="M36" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>-2.8</v>
+      </c>
+      <c r="E37">
+        <v>3.6</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4</v>
+      </c>
+      <c r="K37" s="54">
+        <v>-0.87234042553191404</v>
+      </c>
+      <c r="L37" s="54">
+        <v>3.1418439716312001</v>
+      </c>
+      <c r="M37" s="1">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>-2</v>
+      </c>
+      <c r="E38">
+        <v>2.8</v>
+      </c>
+      <c r="F38">
+        <v>3.29</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="1">
+        <v>5</v>
+      </c>
+      <c r="K38" s="54">
+        <v>-0.83687943262411302</v>
+      </c>
+      <c r="L38" s="54">
+        <v>2.63829787234042</v>
+      </c>
+      <c r="M38" s="1">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>-2.8</v>
+      </c>
+      <c r="E39">
+        <v>2.8</v>
+      </c>
+      <c r="F39">
+        <v>3.29</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="54">
+        <v>-1.72340425531914</v>
+      </c>
+      <c r="L39" s="54">
+        <v>3.2127659574468002</v>
+      </c>
+      <c r="M39" s="1">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>-3.4</v>
+      </c>
+      <c r="E40">
+        <v>3.4</v>
+      </c>
+      <c r="F40">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2</v>
+      </c>
+      <c r="K40" s="54">
+        <v>-0.85815602836879401</v>
+      </c>
+      <c r="L40" s="54">
+        <v>2.7163120567375798</v>
+      </c>
+      <c r="M40" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>-3.2</v>
+      </c>
+      <c r="E41">
+        <v>3.2</v>
+      </c>
+      <c r="F41">
+        <v>3.79</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3</v>
+      </c>
+      <c r="K41" s="54">
+        <v>-0.86524822695035397</v>
+      </c>
+      <c r="L41" s="54">
+        <v>2.72340425531914</v>
+      </c>
+      <c r="M41" s="1">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>-3</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>3.49</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="1">
+        <v>4</v>
+      </c>
+      <c r="K42" s="54">
+        <v>-1.8226950354609901</v>
+      </c>
+      <c r="L42" s="54">
+        <v>3.2553191489361701</v>
+      </c>
+      <c r="M42" s="1">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>-3.2</v>
+      </c>
+      <c r="E43">
+        <v>3.2</v>
+      </c>
+      <c r="F43">
+        <v>3.74</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="1">
+        <v>5</v>
+      </c>
+      <c r="K43" s="54">
+        <v>-0.86524822695035397</v>
+      </c>
+      <c r="L43" s="54">
+        <v>2.7092198581560201</v>
+      </c>
+      <c r="M43" s="1">
+        <v>3.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13178,18 +14586,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13212,18 +14620,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{037B78BC-BDB5-4E1A-B729-BE14A4081AA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB2A140-687F-440C-BC41-8A929AC6C47A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{037B78BC-BDB5-4E1A-B729-BE14A4081AA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/weather_prediction/temp_testcases/temperature_test_cases.xlsx
+++ b/weather_prediction/temp_testcases/temperature_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final Yr\modules\weather_prediction\temp_testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42D230C-922B-4D30-914A-92534B5C398B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6C5F1E-3163-4D0B-9188-547E12747B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D2011C4-F269-40A9-9DF0-25DB32311D9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="697" activeTab="6" xr2:uid="{2D2011C4-F269-40A9-9DF0-25DB32311D9D}"/>
   </bookViews>
   <sheets>
     <sheet name="SVM with grouping" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Mean Error" sheetId="4" r:id="rId4"/>
     <sheet name="Max Difference" sheetId="5" r:id="rId5"/>
     <sheet name="Statistics" sheetId="6" r:id="rId6"/>
+    <sheet name="All Cases (SVM and MLR)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="89">
   <si>
     <t>Parameters</t>
   </si>
@@ -181,6 +182,129 @@
   <si>
     <t>SVM without Grouping</t>
   </si>
+  <si>
+    <t>Max temp, Min temp, Cloud Cover, Feels like</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, Pressure, Humidity</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, Pressure</t>
+  </si>
+  <si>
+    <t>Max temp, Min Temp, wind speed, Humidity</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, Humidity</t>
+  </si>
+  <si>
+    <t>Max temp, Min Temp, wind speed, pressure</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, wind speed</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, wind speed, Cloud cover</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, cloud Cover, pressure</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, cloud Cover, Humidity</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, wind speed, feels like</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, cloud cover</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, Feels like</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, Feels like, Pressure</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, Feels like, Humidity</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, wind speed, Cloud cover, Humidity</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, wind speed, Cloud cover, Pressure</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, wind speed, Cloud cover, Feels like</t>
+  </si>
+  <si>
+    <t>Max temp, Min Temp, wind speed, Humidity, Pressure</t>
+  </si>
+  <si>
+    <t>Max temp, Min Temp, wind speed, Humidity, Feels like</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, wind speed, Cloud cover, Feels like, pressure</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, wind speed, Cloud cover, Feels like, Humidity</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, wind speed, Cloud cover, Feels like, Humidity, pressure</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, wind speed, Cloud cover, Feels like, Humidity, visibility</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, wind speed, Cloud cover, Feels like, visibiloty</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, wind speed, Cloud cover, visibility</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, wind speed, Cloud cover, visibility, pressure</t>
+  </si>
+  <si>
+    <t>Max temp, Min temp, wind speed, Cloud cover, visibility, humidity</t>
+  </si>
+  <si>
+    <t>SVM (C=100)</t>
+  </si>
+  <si>
+    <t>Average Error</t>
+  </si>
+  <si>
+    <t>Max Difference</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>1st Jan - 20th May</t>
+  </si>
+  <si>
+    <t>SVM with Group</t>
+  </si>
+  <si>
+    <t>SVM and MLR</t>
+  </si>
+  <si>
+    <t>SVM grouping</t>
+  </si>
+  <si>
+    <t>MLR and SVM Grp</t>
+  </si>
+  <si>
+    <t>SVM and SVM Grp</t>
+  </si>
+  <si>
+    <t>SVM, SVM Grp and MLR</t>
+  </si>
+  <si>
+    <t>1..2</t>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +343,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -502,6 +668,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,7 +684,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,11 +700,144 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -10437,10 +10751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8070D443-2924-45CF-8AD9-1A1A7B99709F}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10449,17 +10763,17 @@
     <col min="2" max="2" width="65.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -10479,7 +10793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -10499,7 +10813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -10518,8 +10832,14 @@
       <c r="F4" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -10539,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -10559,7 +10879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -10579,7 +10899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -10587,7 +10907,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -10607,7 +10927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -10626,8 +10946,14 @@
       <c r="F10" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="I10" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -10647,7 +10973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -10667,7 +10993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>5</v>
       </c>
@@ -10687,7 +11013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -10695,7 +11021,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -10715,7 +11041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -10734,8 +11060,14 @@
       <c r="F16" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H16" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="I16" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -10755,7 +11087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -10775,7 +11107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>5</v>
       </c>
@@ -10795,7 +11127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -10803,7 +11135,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -10823,7 +11155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>2</v>
       </c>
@@ -10842,8 +11174,14 @@
       <c r="F22" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H22" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="I22" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>3</v>
       </c>
@@ -10863,7 +11201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>4</v>
       </c>
@@ -10883,7 +11221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>5</v>
       </c>
@@ -10903,7 +11241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
@@ -10911,7 +11249,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -10931,7 +11269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>2</v>
       </c>
@@ -10950,8 +11288,14 @@
       <c r="F28" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H28" s="30">
+        <v>3.8</v>
+      </c>
+      <c r="I28" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>3</v>
       </c>
@@ -10971,7 +11315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>4</v>
       </c>
@@ -10991,7 +11335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>5</v>
       </c>
@@ -11011,7 +11355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -11019,7 +11363,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -11039,7 +11383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>2</v>
       </c>
@@ -11058,8 +11402,14 @@
       <c r="F34" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H34" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="I34" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>3</v>
       </c>
@@ -11079,7 +11429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>4</v>
       </c>
@@ -11099,7 +11449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>5</v>
       </c>
@@ -11119,7 +11469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
@@ -11127,7 +11477,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>1</v>
       </c>
@@ -11147,7 +11497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>2</v>
       </c>
@@ -11166,8 +11516,14 @@
       <c r="F40" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H40" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="I40" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>3</v>
       </c>
@@ -11187,7 +11543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>4</v>
       </c>
@@ -11207,7 +11563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>5</v>
       </c>
@@ -11227,7 +11583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
@@ -11235,7 +11591,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>1</v>
       </c>
@@ -11255,7 +11611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>2</v>
       </c>
@@ -11274,8 +11630,14 @@
       <c r="F46" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H46" s="14">
+        <v>3</v>
+      </c>
+      <c r="I46" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>3</v>
       </c>
@@ -11295,7 +11657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>4</v>
       </c>
@@ -11359,13 +11721,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -12136,13 +12498,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -13042,10 +13404,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF653C15-5EF2-439D-ABE9-5DD01436E9C9}">
-  <dimension ref="B2:M43"/>
+  <dimension ref="B1:U44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13060,1324 +13422,1977 @@
     <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="I2" s="53" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="I2" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="51" t="s">
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
+      <c r="P2" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="59"/>
+    </row>
+    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="50" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="P3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="51">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="51">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="51">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="48">
         <v>1.48</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="51">
         <v>1</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="53">
         <v>0.70212765957446799</v>
       </c>
-      <c r="L4" s="54">
+      <c r="L4" s="53">
         <v>2.12056737588652</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="48">
         <v>2.76</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="P4" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C5">
+      <c r="Q4" s="51">
+        <v>1</v>
+      </c>
+      <c r="R4" s="51">
+        <v>-0.8</v>
+      </c>
+      <c r="S4" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="T4" s="48">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="51">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="51">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="51">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="48">
         <v>1.48</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="51">
         <v>2</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="53">
         <v>0.67375886524822604</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="53">
         <v>2.1914893617021201</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="48">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="P5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C6">
+      <c r="Q5" s="51">
+        <v>2</v>
+      </c>
+      <c r="R5" s="51">
+        <v>-0.2</v>
+      </c>
+      <c r="S5" s="51">
+        <v>0.6</v>
+      </c>
+      <c r="T5" s="48">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B6" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="51">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="51">
         <v>2.6</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="51">
         <v>2.6</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="48">
         <v>2.93</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="51">
         <v>3</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6" s="53">
         <v>1.8226950354609901</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="53">
         <v>2.60283687943262</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="48">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="P6" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C7">
+      <c r="Q6" s="51">
+        <v>3</v>
+      </c>
+      <c r="R6" s="51">
+        <v>-0.4</v>
+      </c>
+      <c r="S6" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="T6" s="48">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="51">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="51">
         <v>2.6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="51">
         <v>2.6</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="48">
         <v>2.93</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="51">
         <v>4</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="53">
         <v>1.8156028368794299</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="53">
         <v>2.5531914893617</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="48">
         <v>3.23</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="P7" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C8">
+      <c r="Q7" s="51">
+        <v>4</v>
+      </c>
+      <c r="R7" s="51">
+        <v>1</v>
+      </c>
+      <c r="S7" s="51">
+        <v>1</v>
+      </c>
+      <c r="T7" s="48">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="51">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="51">
         <v>1.4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="51">
         <v>1.4</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="48">
         <v>1.61</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="51">
         <v>5</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="53">
         <v>1.2978723404255299</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="53">
         <v>1.9787234042553099</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="48">
         <v>2.4700000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="P8" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="51">
+        <v>5</v>
+      </c>
+      <c r="R8" s="51">
+        <v>-0.2</v>
+      </c>
+      <c r="S8" s="51">
+        <v>1</v>
+      </c>
+      <c r="T8" s="48">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="51">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="51">
         <v>-0.4</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="51">
         <v>1.6</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="48">
         <v>1.67</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="51">
         <v>1</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="53">
         <v>0.34751773049645301</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="53">
         <v>2.31914893617021</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="48">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="O9" s="1"/>
+      <c r="P9" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C10">
+      <c r="Q9" s="51">
+        <v>1</v>
+      </c>
+      <c r="R9" s="51">
+        <v>-0.4</v>
+      </c>
+      <c r="S9" s="51">
+        <v>1.2</v>
+      </c>
+      <c r="T9" s="48">
+        <v>1.26</v>
+      </c>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="51">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="51">
         <v>-0.2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="51">
         <v>1.8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="48">
         <v>1.84</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="51">
         <v>2</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K10" s="53">
         <v>0.41134751773049599</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="53">
         <v>2.1843971631205599</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="48">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="O10" s="1"/>
+      <c r="P10" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C11">
+      <c r="Q10" s="51">
+        <v>2</v>
+      </c>
+      <c r="R10" s="51">
+        <v>-0.4</v>
+      </c>
+      <c r="S10" s="51">
+        <v>1.2</v>
+      </c>
+      <c r="T10" s="48">
+        <v>1.26</v>
+      </c>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B11" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="51">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="51">
         <v>-0.4</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="51">
         <v>1.6</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="48">
         <v>1.67</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="51">
         <v>3</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="53">
         <v>0.38297872340425498</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="53">
         <v>2.1843971631205599</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="48">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="O11" s="1"/>
+      <c r="P11" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C12">
+      <c r="Q11" s="51">
+        <v>3</v>
+      </c>
+      <c r="R11" s="51">
+        <v>-0.4</v>
+      </c>
+      <c r="S11" s="51">
+        <v>1.6</v>
+      </c>
+      <c r="T11" s="48">
+        <v>1.79</v>
+      </c>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="51">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="51">
         <v>-0.6</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="51">
         <v>1.8</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="48">
         <v>1.95</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="51">
         <v>4</v>
       </c>
-      <c r="K12" s="54">
+      <c r="K12" s="53">
         <v>0.290780141843971</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="53">
         <v>2.24822695035461</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="48">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="O12" s="1"/>
+      <c r="P12" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C13">
+      <c r="Q12" s="51">
+        <v>4</v>
+      </c>
+      <c r="R12" s="51">
+        <v>-0.6</v>
+      </c>
+      <c r="S12" s="51">
+        <v>1.4</v>
+      </c>
+      <c r="T12" s="48">
+        <v>1.61</v>
+      </c>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="51">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="51">
         <v>-0.2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="51">
         <v>1.8</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="48">
         <v>1.84</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="51">
         <v>5</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="53">
         <v>0.63829787234042501</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="53">
         <v>2.43971631205673</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="48">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="O13" s="1"/>
+      <c r="P13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="51">
+        <v>5</v>
+      </c>
+      <c r="R13" s="51">
+        <v>-0.4</v>
+      </c>
+      <c r="S13" s="51">
+        <v>1.2</v>
+      </c>
+      <c r="T13" s="48">
+        <v>1.26</v>
+      </c>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B14" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="51">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="51">
         <v>-1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="51">
         <v>2.6</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="48">
         <v>2.93</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="51">
         <v>1</v>
       </c>
-      <c r="K14" s="54">
+      <c r="K14" s="53">
         <v>0.63829787234042501</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14" s="53">
         <v>2.8226950354609901</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="48">
         <v>3.83</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="O14" s="1"/>
+      <c r="P14" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C15">
+      <c r="Q14" s="51">
+        <v>1</v>
+      </c>
+      <c r="R14" s="51">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="51">
+        <v>1.8</v>
+      </c>
+      <c r="T14" s="48">
+        <v>2.41</v>
+      </c>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="51">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="51">
         <v>0.8</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="51">
         <v>2.4</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="48">
         <v>2.9</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="51">
         <v>2</v>
       </c>
-      <c r="K15" s="54">
+      <c r="K15" s="53">
         <v>1.40425531914893</v>
       </c>
-      <c r="L15" s="54">
+      <c r="L15" s="53">
         <v>2.75177304964539</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="48">
         <v>3.47</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="O15" s="1"/>
+      <c r="P15" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C16">
+      <c r="Q15" s="51">
+        <v>2</v>
+      </c>
+      <c r="R15" s="51">
+        <v>-0.2</v>
+      </c>
+      <c r="S15" s="51">
+        <v>1.8</v>
+      </c>
+      <c r="T15" s="48">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B16" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="51">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="51">
         <v>0.8</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="51">
         <v>2.4</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="48">
         <v>2.9</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="51">
         <v>3</v>
       </c>
-      <c r="K16" s="54">
+      <c r="K16" s="53">
         <v>1.2624113475177301</v>
       </c>
-      <c r="L16" s="54">
+      <c r="L16" s="53">
         <v>2.6808510638297798</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="48">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="O16" s="1"/>
+      <c r="P16" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C17">
+      <c r="Q16" s="51">
+        <v>3</v>
+      </c>
+      <c r="R16" s="51">
+        <v>-0.6</v>
+      </c>
+      <c r="S16" s="51">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T16" s="48">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="51">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="51">
         <v>-1.2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="51">
         <v>2.8</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="48">
         <v>3.03</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="51">
         <v>4</v>
       </c>
-      <c r="K17" s="54">
+      <c r="K17" s="53">
         <v>0.39716312056737502</v>
       </c>
-      <c r="L17" s="54">
+      <c r="L17" s="53">
         <v>2.75177304964539</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="48">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="O17" s="1"/>
+      <c r="P17" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C18">
+      <c r="Q17" s="51">
+        <v>4</v>
+      </c>
+      <c r="R17" s="51">
+        <v>-1.4</v>
+      </c>
+      <c r="S17" s="51">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T17" s="48">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="51">
         <v>5</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="51">
         <v>0.2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="51">
         <v>1.4</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="48">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="51">
         <v>5</v>
       </c>
-      <c r="K18" s="54">
+      <c r="K18" s="53">
         <v>1.1418439716312001</v>
       </c>
-      <c r="L18" s="54">
+      <c r="L18" s="53">
         <v>2.80141843971631</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="48">
         <v>3.64</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="O18" s="1"/>
+      <c r="P18" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="51">
+        <v>5</v>
+      </c>
+      <c r="R18" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="S18" s="51">
+        <v>1</v>
+      </c>
+      <c r="T18" s="48">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="51">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="51">
         <v>-2.6</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="51">
         <v>3.4</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="48">
         <v>4.3099999999999996</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="51">
         <v>1</v>
       </c>
-      <c r="K19" s="54">
+      <c r="K19" s="53">
         <v>-2.8297872340425498</v>
       </c>
-      <c r="L19" s="54">
+      <c r="L19" s="53">
         <v>4.3617021276595702</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="48">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="O19" s="1"/>
+      <c r="P19" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C20">
+      <c r="Q19" s="51">
+        <v>1</v>
+      </c>
+      <c r="R19" s="51">
+        <v>-3.6</v>
+      </c>
+      <c r="S19" s="51">
+        <v>4</v>
+      </c>
+      <c r="T19" s="48">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="51">
         <v>2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="51">
         <v>-2.4</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="51">
         <v>3.2</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="48">
         <v>4.34</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="51">
         <v>2</v>
       </c>
-      <c r="K20" s="54">
+      <c r="K20" s="53">
         <v>-2.60283687943262</v>
       </c>
-      <c r="L20" s="54">
+      <c r="L20" s="53">
         <v>3.83687943262411</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="48">
         <v>4.5599999999999996</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="O20" s="1"/>
+      <c r="P20" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C21">
+      <c r="Q20" s="51">
+        <v>2</v>
+      </c>
+      <c r="R20" s="51">
+        <v>-2.8</v>
+      </c>
+      <c r="S20" s="51">
+        <v>3.2</v>
+      </c>
+      <c r="T20" s="48">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="51">
         <v>3</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="51">
         <v>-2.6</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="51">
         <v>3.4</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="48">
         <v>4.07</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="51">
         <v>3</v>
       </c>
-      <c r="K21" s="54">
+      <c r="K21" s="53">
         <v>-2.6595744680851001</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="53">
         <v>3.8085106382978702</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="48">
         <v>4.58</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="O21" s="1"/>
+      <c r="P21" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C22">
+      <c r="Q21" s="51">
+        <v>3</v>
+      </c>
+      <c r="R21" s="51">
+        <v>-2.8</v>
+      </c>
+      <c r="S21" s="51">
+        <v>3.6</v>
+      </c>
+      <c r="T21" s="48">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="51">
         <v>4</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="51">
         <v>-3</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="51">
         <v>3.8</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="48">
         <v>4.45</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="51">
         <v>4</v>
       </c>
-      <c r="K22" s="54">
+      <c r="K22" s="53">
         <v>-2.9007092198581499</v>
       </c>
-      <c r="L22" s="54">
+      <c r="L22" s="53">
         <v>4.3049645390070896</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="48">
         <v>5.42</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="O22" s="1"/>
+      <c r="P22" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C23">
+      <c r="Q22" s="51">
+        <v>4</v>
+      </c>
+      <c r="R22" s="51">
+        <v>-4.2</v>
+      </c>
+      <c r="S22" s="51">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T22" s="48">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="51">
         <v>5</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="51">
         <v>-2.6</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="51">
         <v>3.4</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="48">
         <v>4.17</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="51">
         <v>5</v>
       </c>
-      <c r="K23" s="54">
+      <c r="K23" s="53">
         <v>-2.3829787234042499</v>
       </c>
-      <c r="L23" s="54">
+      <c r="L23" s="53">
         <v>3.7021276595744599</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="48">
         <v>4.51</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="O23" s="1"/>
+      <c r="P23" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="51">
+        <v>5</v>
+      </c>
+      <c r="R23" s="51">
+        <v>-3</v>
+      </c>
+      <c r="S23" s="51">
+        <v>3.4</v>
+      </c>
+      <c r="T23" s="48">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="51">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="51">
         <v>-4</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="51">
         <v>4</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="48">
         <v>4.5199999999999996</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="51">
         <v>1</v>
       </c>
-      <c r="K24" s="54">
+      <c r="K24" s="53">
         <v>-4.0992907801418399</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="53">
         <v>4.3829787234042499</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="48">
         <v>5.26</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="O24" s="1"/>
+      <c r="P24" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C25">
+      <c r="Q24" s="51">
+        <v>1</v>
+      </c>
+      <c r="R24" s="51">
+        <v>-3.2</v>
+      </c>
+      <c r="S24" s="51">
+        <v>3.2</v>
+      </c>
+      <c r="T24" s="48">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="51">
         <v>2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="51">
         <v>-4</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="51">
         <v>4</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="48">
         <v>5.18</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="51">
         <v>2</v>
       </c>
-      <c r="K25" s="54">
+      <c r="K25" s="53">
         <v>-4.1985815602836798</v>
       </c>
-      <c r="L25" s="54">
+      <c r="L25" s="53">
         <v>4.3971631205673702</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="48">
         <v>5.23</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="O25" s="1"/>
+      <c r="P25" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C26">
+      <c r="Q25" s="51">
+        <v>2</v>
+      </c>
+      <c r="R25" s="51">
+        <v>-3.2</v>
+      </c>
+      <c r="S25" s="51">
+        <v>3.2</v>
+      </c>
+      <c r="T25" s="48">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="51">
         <v>3</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="51">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="51">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="48">
         <v>5.29</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="51">
         <v>3</v>
       </c>
-      <c r="K26" s="54">
+      <c r="K26" s="53">
         <v>-4.1702127659574399</v>
       </c>
-      <c r="L26" s="54">
+      <c r="L26" s="53">
         <v>4.3687943262411304</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="48">
         <v>5.19</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="O26" s="1"/>
+      <c r="P26" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C27">
+      <c r="Q26" s="51">
+        <v>3</v>
+      </c>
+      <c r="R26" s="51">
+        <v>-2.8</v>
+      </c>
+      <c r="S26" s="51">
+        <v>2.8</v>
+      </c>
+      <c r="T26" s="48">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="51">
         <v>4</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="51">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="51">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="48">
         <v>5.16</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="51">
         <v>4</v>
       </c>
-      <c r="K27" s="54">
+      <c r="K27" s="53">
         <v>-3.9716312056737499</v>
       </c>
-      <c r="L27" s="54">
+      <c r="L27" s="53">
         <v>4.2978723404255303</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="48">
         <v>5.16</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="O27" s="1"/>
+      <c r="P27" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C28">
+      <c r="Q27" s="51">
+        <v>4</v>
+      </c>
+      <c r="R27" s="51">
+        <v>-2.8</v>
+      </c>
+      <c r="S27" s="51">
+        <v>2.8</v>
+      </c>
+      <c r="T27" s="48">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="51">
         <v>5</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="51">
         <v>-3.8</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="51">
         <v>3.8</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="48">
         <v>4.17</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="51">
         <v>5</v>
       </c>
-      <c r="K28" s="54">
+      <c r="K28" s="53">
         <v>-3.8226950354609901</v>
       </c>
-      <c r="L28" s="54">
+      <c r="L28" s="53">
         <v>4.0921985815602797</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="48">
         <v>4.88</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+      <c r="O28" s="1"/>
+      <c r="P28" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q28" s="51">
+        <v>5</v>
+      </c>
+      <c r="R28" s="51">
+        <v>-4</v>
+      </c>
+      <c r="S28" s="51">
+        <v>4</v>
+      </c>
+      <c r="T28" s="48">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="51">
         <v>1</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="51">
         <v>-3.6</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="51">
         <v>3.6</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="48">
         <v>4.24</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="51">
         <v>1</v>
       </c>
-      <c r="K29" s="54">
+      <c r="K29" s="53">
         <v>-0.68794326241134696</v>
       </c>
-      <c r="L29" s="54">
+      <c r="L29" s="53">
         <v>2.5319148936170199</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="48">
         <v>3.29</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="O29" s="1"/>
+      <c r="P29" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C30">
+      <c r="Q29" s="51">
+        <v>1</v>
+      </c>
+      <c r="R29" s="51">
+        <v>-1.4</v>
+      </c>
+      <c r="S29" s="51">
+        <v>1.4</v>
+      </c>
+      <c r="T29" s="48">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="51">
         <v>2</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="51">
         <v>-3</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="51">
         <v>3</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="48">
         <v>3.26</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="51">
         <v>2</v>
       </c>
-      <c r="K30" s="54">
+      <c r="K30" s="53">
         <v>-0.54609929078014097</v>
       </c>
-      <c r="L30" s="54">
+      <c r="L30" s="53">
         <v>2.5177304964539</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="48">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="O30" s="1"/>
+      <c r="P30" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C31">
+      <c r="Q30" s="51">
+        <v>2</v>
+      </c>
+      <c r="R30" s="51">
+        <v>-1.2</v>
+      </c>
+      <c r="S30" s="51">
+        <v>1.2</v>
+      </c>
+      <c r="T30" s="48">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B31" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="51">
         <v>3</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="51">
         <v>-3</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="51">
         <v>3</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="48">
         <v>3.26</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="51">
         <v>3</v>
       </c>
-      <c r="K31" s="54">
+      <c r="K31" s="53">
         <v>-0.58156028368794299</v>
       </c>
-      <c r="L31" s="54">
+      <c r="L31" s="53">
         <v>2.56737588652482</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="48">
         <v>3.28</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="O31" s="1"/>
+      <c r="P31" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C32">
+      <c r="Q31" s="51">
+        <v>3</v>
+      </c>
+      <c r="R31" s="51">
+        <v>-1.6</v>
+      </c>
+      <c r="S31" s="51">
+        <v>2.4</v>
+      </c>
+      <c r="T31" s="48">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B32" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="51">
         <v>4</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="51">
         <v>-3.2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="51">
         <v>3.2</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="48">
         <v>3.74</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="51">
         <v>4</v>
       </c>
-      <c r="K32" s="54">
+      <c r="K32" s="53">
         <v>-0.82978723404255295</v>
       </c>
-      <c r="L32" s="54">
+      <c r="L32" s="53">
         <v>2.6312056737588598</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="48">
         <v>3.37</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="O32" s="1"/>
+      <c r="P32" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C33">
+      <c r="Q32" s="51">
+        <v>4</v>
+      </c>
+      <c r="R32" s="51">
+        <v>-2.6</v>
+      </c>
+      <c r="S32" s="51">
+        <v>3.4</v>
+      </c>
+      <c r="T32" s="48">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B33" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="51">
         <v>5</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="51">
         <v>-3.2</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="51">
         <v>3.2</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="48">
         <v>3.74</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="51">
         <v>5</v>
       </c>
-      <c r="K33" s="54">
+      <c r="K33" s="53">
         <v>-0.41134751773049599</v>
       </c>
-      <c r="L33" s="54">
+      <c r="L33" s="53">
         <v>2.5106382978723398</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="48">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="O33" s="1"/>
+      <c r="P33" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q33" s="51">
+        <v>5</v>
+      </c>
+      <c r="R33" s="51">
+        <v>-0.8</v>
+      </c>
+      <c r="S33" s="51">
+        <v>2</v>
+      </c>
+      <c r="T33" s="48">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B34" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="51">
         <v>1</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="51">
         <v>-2.8</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="51">
         <v>3.6</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="48">
         <v>4</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="51">
         <v>1</v>
       </c>
-      <c r="K34" s="54">
+      <c r="K34" s="53">
         <v>-0.85815602836879401</v>
       </c>
-      <c r="L34" s="54">
+      <c r="L34" s="53">
         <v>3.08510638297872</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="48">
         <v>4.08</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+      <c r="O34" s="1"/>
+      <c r="P34" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C35">
+      <c r="Q34" s="51">
+        <v>1</v>
+      </c>
+      <c r="R34" s="51">
+        <v>-2.4</v>
+      </c>
+      <c r="S34" s="51">
+        <v>3.2</v>
+      </c>
+      <c r="T34" s="48">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B35" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="51">
         <v>2</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="51">
         <v>-2</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="51">
         <v>3.2</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="48">
         <v>3.52</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="51">
         <v>2</v>
       </c>
-      <c r="K35" s="54">
+      <c r="K35" s="53">
         <v>0.59574468085106302</v>
       </c>
-      <c r="L35" s="54">
+      <c r="L35" s="53">
         <v>2.9503546099290698</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="48">
         <v>3.79</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="O35" s="1"/>
+      <c r="P35" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C36">
+      <c r="Q35" s="51">
+        <v>2</v>
+      </c>
+      <c r="R35" s="51">
+        <v>-1.8</v>
+      </c>
+      <c r="S35" s="51">
+        <v>4.2</v>
+      </c>
+      <c r="T35" s="48">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B36" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="51">
         <v>3</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="51">
         <v>-2</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="51">
         <v>3.2</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="48">
         <v>3.52</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="51">
         <v>3</v>
       </c>
-      <c r="K36" s="54">
+      <c r="K36" s="53">
         <v>0.58156028368794299</v>
       </c>
-      <c r="L36" s="54">
+      <c r="L36" s="53">
         <v>2.8510638297872299</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="48">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="O36" s="1"/>
+      <c r="P36" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C37">
+      <c r="Q36" s="51">
+        <v>3</v>
+      </c>
+      <c r="R36" s="51">
+        <v>-1</v>
+      </c>
+      <c r="S36" s="51">
+        <v>3.4</v>
+      </c>
+      <c r="T36" s="48">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B37" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="51">
         <v>4</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="51">
         <v>-2.8</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="51">
         <v>3.6</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="48">
         <v>4</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="51">
         <v>4</v>
       </c>
-      <c r="K37" s="54">
+      <c r="K37" s="53">
         <v>-0.87234042553191404</v>
       </c>
-      <c r="L37" s="54">
+      <c r="L37" s="53">
         <v>3.1418439716312001</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="48">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+      <c r="O37" s="1"/>
+      <c r="P37" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C38">
+      <c r="Q37" s="51">
+        <v>4</v>
+      </c>
+      <c r="R37" s="51">
+        <v>-2.4</v>
+      </c>
+      <c r="S37" s="51">
+        <v>3.2</v>
+      </c>
+      <c r="T37" s="48">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B38" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="51">
         <v>5</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="51">
         <v>-2</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="51">
         <v>2.8</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="48">
         <v>3.29</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="51">
         <v>5</v>
       </c>
-      <c r="K38" s="54">
+      <c r="K38" s="53">
         <v>-0.83687943262411302</v>
       </c>
-      <c r="L38" s="54">
+      <c r="L38" s="53">
         <v>2.63829787234042</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="48">
         <v>3.64</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+      <c r="O38" s="1"/>
+      <c r="P38" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q38" s="51">
+        <v>5</v>
+      </c>
+      <c r="R38" s="51">
+        <v>-1.2</v>
+      </c>
+      <c r="S38" s="51">
+        <v>2.8</v>
+      </c>
+      <c r="T38" s="48">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B39" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="51">
         <v>1</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="51">
         <v>-2.8</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="51">
         <v>2.8</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="48">
         <v>3.29</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="51">
         <v>1</v>
       </c>
-      <c r="K39" s="54">
+      <c r="K39" s="53">
         <v>-1.72340425531914</v>
       </c>
-      <c r="L39" s="54">
+      <c r="L39" s="53">
         <v>3.2127659574468002</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="48">
         <v>4.04</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+      <c r="O39" s="1"/>
+      <c r="P39" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C40">
+      <c r="Q39" s="51">
+        <v>1</v>
+      </c>
+      <c r="R39" s="51">
+        <v>-1.2</v>
+      </c>
+      <c r="S39" s="51">
         <v>2</v>
       </c>
-      <c r="D40">
+      <c r="T39" s="48">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B40" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="51">
+        <v>2</v>
+      </c>
+      <c r="D40" s="51">
         <v>-3.4</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="51">
         <v>3.4</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="48">
         <v>4.0199999999999996</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="51">
         <v>2</v>
       </c>
-      <c r="K40" s="54">
+      <c r="K40" s="53">
         <v>-0.85815602836879401</v>
       </c>
-      <c r="L40" s="54">
+      <c r="L40" s="53">
         <v>2.7163120567375798</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="48">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+      <c r="O40" s="1"/>
+      <c r="P40" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C41">
+      <c r="Q40" s="51">
+        <v>2</v>
+      </c>
+      <c r="R40" s="51">
+        <v>-0.6</v>
+      </c>
+      <c r="S40" s="51">
+        <v>1.4</v>
+      </c>
+      <c r="T40" s="48">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B41" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="51">
         <v>3</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="51">
         <v>-3.2</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="51">
         <v>3.2</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="48">
         <v>3.79</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="51">
         <v>3</v>
       </c>
-      <c r="K41" s="54">
+      <c r="K41" s="53">
         <v>-0.86524822695035397</v>
       </c>
-      <c r="L41" s="54">
+      <c r="L41" s="53">
         <v>2.72340425531914</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="48">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+      <c r="O41" s="1"/>
+      <c r="P41" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C42">
+      <c r="Q41" s="51">
+        <v>3</v>
+      </c>
+      <c r="R41" s="51">
+        <v>-0.6</v>
+      </c>
+      <c r="S41" s="51">
+        <v>1.8</v>
+      </c>
+      <c r="T41" s="48">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B42" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="51">
         <v>4</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="51">
         <v>-3</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="51">
         <v>3</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="48">
         <v>3.49</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="51">
         <v>4</v>
       </c>
-      <c r="K42" s="54">
+      <c r="K42" s="53">
         <v>-1.8226950354609901</v>
       </c>
-      <c r="L42" s="54">
+      <c r="L42" s="53">
         <v>3.2553191489361701</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="48">
         <v>4.13</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+      <c r="O42" s="1"/>
+      <c r="P42" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C43">
+      <c r="Q42" s="51">
+        <v>4</v>
+      </c>
+      <c r="R42" s="51">
+        <v>-1.4</v>
+      </c>
+      <c r="S42" s="51">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T42" s="48">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="52">
         <v>5</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="52">
         <v>-3.2</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="52">
         <v>3.2</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="49">
         <v>3.74</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="52">
         <v>5</v>
       </c>
       <c r="K43" s="54">
@@ -14386,21 +15401,1227 @@
       <c r="L43" s="54">
         <v>2.7092198581560201</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" s="49">
         <v>3.46</v>
       </c>
+      <c r="O43" s="1"/>
+      <c r="P43" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q43" s="52">
+        <v>5</v>
+      </c>
+      <c r="R43" s="52">
+        <v>-1</v>
+      </c>
+      <c r="S43" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="T43" s="49">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="O44" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="I2:M2"/>
+    <mergeCell ref="P2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECB325A-6FA5-4A30-A3E5-F6E4C4A4F4BC}">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="4" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E1" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="62"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="63">
+        <v>2.7446808510638299</v>
+      </c>
+      <c r="F3" s="1">
+        <v>18</v>
+      </c>
+      <c r="H3" s="63">
+        <v>3.6950354609929001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1">
+        <v>300</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="63">
+        <v>3.3049645390070901</v>
+      </c>
+      <c r="F4" s="1">
+        <v>22</v>
+      </c>
+      <c r="H4" s="63">
+        <v>3.3049645390070901</v>
+      </c>
+      <c r="I4" s="1">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1">
+        <v>300</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="63">
+        <v>4.7446808510638299</v>
+      </c>
+      <c r="F5" s="1">
+        <v>14</v>
+      </c>
+      <c r="H5" s="63">
+        <v>3.6808510638297798</v>
+      </c>
+      <c r="I5" s="1">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1">
+        <v>300</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="63">
+        <v>2.9645390070921902</v>
+      </c>
+      <c r="F6" s="1">
+        <v>16</v>
+      </c>
+      <c r="H6" s="63">
+        <v>3.3262411347517702</v>
+      </c>
+      <c r="I6" s="1">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1">
+        <v>300</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="63">
+        <v>2.87234042553191</v>
+      </c>
+      <c r="F7" s="1">
+        <v>16</v>
+      </c>
+      <c r="H7" s="63">
+        <v>3.36879432624113</v>
+      </c>
+      <c r="I7" s="1">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1">
+        <v>300</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="63">
+        <v>4.4326241134751703</v>
+      </c>
+      <c r="F8" s="1">
+        <v>17</v>
+      </c>
+      <c r="H8" s="63">
+        <v>3.5815602836879399</v>
+      </c>
+      <c r="I8" s="1">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1">
+        <v>836</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="63">
+        <v>2.9716312056737499</v>
+      </c>
+      <c r="F9" s="1">
+        <v>27</v>
+      </c>
+      <c r="H9" s="63">
+        <v>3.5177304964539</v>
+      </c>
+      <c r="I9" s="1">
+        <v>23</v>
+      </c>
+      <c r="K9" s="1">
+        <v>300</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="63">
+        <v>2.75177304964539</v>
+      </c>
+      <c r="F10" s="1">
+        <v>17</v>
+      </c>
+      <c r="H10" s="63">
+        <v>3.5177304964539</v>
+      </c>
+      <c r="I10" s="1">
+        <v>22</v>
+      </c>
+      <c r="K10" s="1">
+        <v>300</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M10" s="1">
+        <v>5</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="66"/>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="63">
+        <v>4.4964539007092199</v>
+      </c>
+      <c r="F11" s="1">
+        <v>14</v>
+      </c>
+      <c r="H11" s="63">
+        <v>3.6595744680851001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1">
+        <v>300</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="67"/>
+      <c r="P11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="63">
+        <v>2.9007092198581499</v>
+      </c>
+      <c r="F12" s="1">
+        <v>15</v>
+      </c>
+      <c r="H12" s="63">
+        <v>3.2269503546099201</v>
+      </c>
+      <c r="I12" s="1">
+        <v>25</v>
+      </c>
+      <c r="K12" s="1">
+        <v>300</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="68"/>
+      <c r="P12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="63">
+        <v>3.1347517730496399</v>
+      </c>
+      <c r="F13" s="1">
+        <v>15</v>
+      </c>
+      <c r="H13" s="63">
+        <v>3.4822695035460902</v>
+      </c>
+      <c r="I13" s="1">
+        <v>22</v>
+      </c>
+      <c r="K13" s="1">
+        <v>300</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M13" s="1">
+        <v>4</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="63">
+        <v>2.9787234042553101</v>
+      </c>
+      <c r="F14" s="1">
+        <v>18</v>
+      </c>
+      <c r="H14" s="63">
+        <v>3.5531914893617</v>
+      </c>
+      <c r="I14" s="1">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1520</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M14" s="1">
+        <v>6</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="63">
+        <v>3.2624113475177299</v>
+      </c>
+      <c r="F15" s="1">
+        <v>15</v>
+      </c>
+      <c r="H15" s="63">
+        <v>3.6808510638297798</v>
+      </c>
+      <c r="I15" s="1">
+        <v>35</v>
+      </c>
+      <c r="K15" s="1">
+        <v>899</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="M15" s="1">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="69"/>
+      <c r="P15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="63">
+        <v>4.2553191489361701</v>
+      </c>
+      <c r="F16" s="1">
+        <v>13</v>
+      </c>
+      <c r="H16" s="63">
+        <v>3.68794326241134</v>
+      </c>
+      <c r="I16" s="1">
+        <v>35</v>
+      </c>
+      <c r="K16" s="1">
+        <v>300</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="70"/>
+      <c r="P16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="63">
+        <v>3.0780141843971598</v>
+      </c>
+      <c r="F17" s="1">
+        <v>14</v>
+      </c>
+      <c r="H17" s="63">
+        <v>3.3900709219858101</v>
+      </c>
+      <c r="I17" s="1">
+        <v>12</v>
+      </c>
+      <c r="K17" s="1">
+        <v>300</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="71"/>
+      <c r="P17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="63">
+        <v>2.80141843971631</v>
+      </c>
+      <c r="F18" s="1">
+        <v>17</v>
+      </c>
+      <c r="H18" s="63">
+        <v>3.2269503546099201</v>
+      </c>
+      <c r="I18" s="1">
+        <v>27</v>
+      </c>
+      <c r="K18" s="1">
+        <v>300</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="72"/>
+      <c r="P18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="63">
+        <v>4.3475177304964499</v>
+      </c>
+      <c r="F19" s="1">
+        <v>17</v>
+      </c>
+      <c r="H19" s="63">
+        <v>3.5106382978723398</v>
+      </c>
+      <c r="I19" s="1">
+        <v>19</v>
+      </c>
+      <c r="K19" s="1">
+        <v>511</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="63">
+        <v>2.6808510638297798</v>
+      </c>
+      <c r="F20" s="1">
+        <v>11</v>
+      </c>
+      <c r="H20" s="63">
+        <v>3.47517730496453</v>
+      </c>
+      <c r="I20" s="1">
+        <v>22</v>
+      </c>
+      <c r="K20" s="1">
+        <v>300</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="63">
+        <v>3.3475177304964499</v>
+      </c>
+      <c r="F21" s="1">
+        <v>23</v>
+      </c>
+      <c r="H21" s="63">
+        <v>3.2695035460992901</v>
+      </c>
+      <c r="I21" s="1">
+        <v>29</v>
+      </c>
+      <c r="K21" s="1">
+        <v>300</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="63">
+        <v>3.0921985815602802</v>
+      </c>
+      <c r="F22" s="1">
+        <v>14</v>
+      </c>
+      <c r="H22" s="63">
+        <v>3.2340425531914798</v>
+      </c>
+      <c r="I22" s="1">
+        <v>14</v>
+      </c>
+      <c r="K22" s="1">
+        <v>300</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="63">
+        <v>4.0070921985815602</v>
+      </c>
+      <c r="F23" s="1">
+        <v>13</v>
+      </c>
+      <c r="H23" s="63">
+        <v>3.5319148936170199</v>
+      </c>
+      <c r="I23" s="1">
+        <v>22</v>
+      </c>
+      <c r="K23" s="1">
+        <v>400</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="63">
+        <v>2.7446808510638299</v>
+      </c>
+      <c r="F24" s="1">
+        <v>13</v>
+      </c>
+      <c r="H24" s="63">
+        <v>3.15602836879432</v>
+      </c>
+      <c r="I24" s="1">
+        <v>14</v>
+      </c>
+      <c r="K24" s="1">
+        <v>324</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>3</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="63">
+        <v>3.20567375886524</v>
+      </c>
+      <c r="F25" s="1">
+        <v>17</v>
+      </c>
+      <c r="H25" s="63">
+        <v>3.0992907801418399</v>
+      </c>
+      <c r="I25" s="1">
+        <v>14</v>
+      </c>
+      <c r="K25" s="1">
+        <v>300</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="63">
+        <v>2.7730496453900702</v>
+      </c>
+      <c r="F26" s="1">
+        <v>13</v>
+      </c>
+      <c r="H26" s="63">
+        <v>3.2695035460992901</v>
+      </c>
+      <c r="I26" s="1">
+        <v>14</v>
+      </c>
+      <c r="K26" s="1">
+        <v>300</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M26" s="1">
+        <v>3</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="63">
+        <v>2.75177304964539</v>
+      </c>
+      <c r="F27" s="1">
+        <v>11</v>
+      </c>
+      <c r="H27" s="63">
+        <v>3.5248226950354602</v>
+      </c>
+      <c r="I27" s="1">
+        <v>19</v>
+      </c>
+      <c r="K27" s="1">
+        <v>300</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="M27" s="1">
+        <v>4</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="63">
+        <v>2.8226950354609901</v>
+      </c>
+      <c r="F28" s="1">
+        <v>20</v>
+      </c>
+      <c r="H28" s="63">
+        <v>3.5815602836879399</v>
+      </c>
+      <c r="I28" s="1">
+        <v>24</v>
+      </c>
+      <c r="K28" s="1">
+        <v>300</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="M28" s="1">
+        <v>4</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="63">
+        <v>4.3758865248226897</v>
+      </c>
+      <c r="F29" s="1">
+        <v>18</v>
+      </c>
+      <c r="H29" s="63">
+        <v>3.5744680851063801</v>
+      </c>
+      <c r="I29" s="1">
+        <v>21</v>
+      </c>
+      <c r="K29" s="1">
+        <v>561</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M29" s="1">
+        <v>2</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="63">
+        <v>2.8439716312056702</v>
+      </c>
+      <c r="F30" s="1">
+        <v>18</v>
+      </c>
+      <c r="H30" s="63">
+        <v>3.2978723404255299</v>
+      </c>
+      <c r="I30" s="1">
+        <v>27</v>
+      </c>
+      <c r="K30" s="1">
+        <v>300</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>2</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O36" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E3:E30">
+    <cfRule type="top10" dxfId="5" priority="4" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H30">
+    <cfRule type="top10" dxfId="4" priority="3" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L30">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="5"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010067FC146B2CB0C14282A438ACCDD392C9" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f181072b5df2d35465bbfefa3677604c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c49a57df-1bea-4d37-b8e7-79584c6c9970" xmlns:ns4="91fbfc98-c073-46c0-a3f7-723052533dfe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0894f50e4f2c30a5a7ac145d2a35031b" ns3:_="" ns4:_="">
     <xsd:import namespace="c49a57df-1bea-4d37-b8e7-79584c6c9970"/>
@@ -14585,22 +16806,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB2A140-687F-440C-BC41-8A929AC6C47A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{037B78BC-BDB5-4E1A-B729-BE14A4081AA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{925E259C-28DA-4CEC-93E0-691AD8941CEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14617,21 +16840,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAB2A140-687F-440C-BC41-8A929AC6C47A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{037B78BC-BDB5-4E1A-B729-BE14A4081AA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>